--- a/data/lottery-records.xlsx
+++ b/data/lottery-records.xlsx
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,16 +427,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025/10/18 17:29:24</v>
+        <v>2025/10/18 17:30:55</v>
       </c>
       <c r="B2" t="str">
-        <v>k8-7-1-2403</v>
+        <v>K8-6-1-3801</v>
       </c>
       <c r="C2" t="str">
-        <v>吴磊</v>
+        <v>陈鹏宇</v>
       </c>
       <c r="D2" t="str">
-        <v>134****7031</v>
+        <v>180****5902</v>
       </c>
       <c r="E2" t="str">
         <v>谢谢参与</v>
@@ -444,16 +444,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025/10/18 14:19:34</v>
+        <v>2025/10/18 17:29:24</v>
       </c>
       <c r="B3" t="str">
-        <v>k10-1-2-102</v>
+        <v>k8-7-1-2403</v>
       </c>
       <c r="C3" t="str">
-        <v>赵六</v>
+        <v>吴磊</v>
       </c>
       <c r="D3" t="str">
-        <v>138****8004</v>
+        <v>134****7031</v>
       </c>
       <c r="E3" t="str">
         <v>谢谢参与</v>
@@ -461,41 +461,58 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025/10/18 14:02:30</v>
+        <v>2025/10/18 14:19:34</v>
       </c>
       <c r="B4" t="str">
-        <v>k10-1-1-101</v>
+        <v>k10-1-2-102</v>
       </c>
       <c r="C4" t="str">
-        <v>张三</v>
+        <v>赵六</v>
       </c>
       <c r="D4" t="str">
-        <v>138****8001</v>
+        <v>138****8004</v>
       </c>
       <c r="E4" t="str">
-        <v>一等奖</v>
+        <v>谢谢参与</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <v>2025/10/18 14:02:30</v>
+      </c>
+      <c r="B5" t="str">
+        <v>k10-1-1-101</v>
+      </c>
+      <c r="C5" t="str">
+        <v>张三</v>
+      </c>
+      <c r="D5" t="str">
+        <v>138****8001</v>
+      </c>
+      <c r="E5" t="str">
+        <v>一等奖</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
         <v>2025/10/18 13:41:18</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B6" t="str">
         <v>k10-1-2-101</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C6" t="str">
         <v>王五</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D6" t="str">
         <v>138****8003</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E6" t="str">
         <v>三等奖</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/lottery-records.xlsx
+++ b/data/lottery-records.xlsx
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,16 +427,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025/10/18 17:30:55</v>
+        <v>2025/10/18 17:33:22</v>
       </c>
       <c r="B2" t="str">
-        <v>K8-6-1-3801</v>
+        <v>K10-1-1-2405</v>
       </c>
       <c r="C2" t="str">
-        <v>陈鹏宇</v>
+        <v>宁治磊</v>
       </c>
       <c r="D2" t="str">
-        <v>180****5902</v>
+        <v>130****1267</v>
       </c>
       <c r="E2" t="str">
         <v>谢谢参与</v>
@@ -444,16 +444,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025/10/18 17:29:24</v>
+        <v>2025/10/18 17:30:55</v>
       </c>
       <c r="B3" t="str">
-        <v>k8-7-1-2403</v>
+        <v>K8-6-1-3801</v>
       </c>
       <c r="C3" t="str">
-        <v>吴磊</v>
+        <v>陈鹏宇</v>
       </c>
       <c r="D3" t="str">
-        <v>134****7031</v>
+        <v>180****5902</v>
       </c>
       <c r="E3" t="str">
         <v>谢谢参与</v>
@@ -461,16 +461,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025/10/18 14:19:34</v>
+        <v>2025/10/18 17:29:24</v>
       </c>
       <c r="B4" t="str">
-        <v>k10-1-2-102</v>
+        <v>k8-7-1-2403</v>
       </c>
       <c r="C4" t="str">
-        <v>赵六</v>
+        <v>吴磊</v>
       </c>
       <c r="D4" t="str">
-        <v>138****8004</v>
+        <v>134****7031</v>
       </c>
       <c r="E4" t="str">
         <v>谢谢参与</v>
@@ -478,41 +478,58 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025/10/18 14:02:30</v>
+        <v>2025/10/18 14:19:34</v>
       </c>
       <c r="B5" t="str">
-        <v>k10-1-1-101</v>
+        <v>k10-1-2-102</v>
       </c>
       <c r="C5" t="str">
-        <v>张三</v>
+        <v>赵六</v>
       </c>
       <c r="D5" t="str">
-        <v>138****8001</v>
+        <v>138****8004</v>
       </c>
       <c r="E5" t="str">
-        <v>一等奖</v>
+        <v>谢谢参与</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>2025/10/18 14:02:30</v>
+      </c>
+      <c r="B6" t="str">
+        <v>k10-1-1-101</v>
+      </c>
+      <c r="C6" t="str">
+        <v>张三</v>
+      </c>
+      <c r="D6" t="str">
+        <v>138****8001</v>
+      </c>
+      <c r="E6" t="str">
+        <v>一等奖</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
         <v>2025/10/18 13:41:18</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B7" t="str">
         <v>k10-1-2-101</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C7" t="str">
         <v>王五</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D7" t="str">
         <v>138****8003</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E7" t="str">
         <v>三等奖</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/lottery-records.xlsx
+++ b/data/lottery-records.xlsx
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,33 +427,33 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025/10/18 17:33:22</v>
+        <v>2025/10/18 17:36:56</v>
       </c>
       <c r="B2" t="str">
-        <v>K10-1-1-2405</v>
+        <v>k9-2-1-703</v>
       </c>
       <c r="C2" t="str">
-        <v>宁治磊</v>
+        <v>丁颖</v>
       </c>
       <c r="D2" t="str">
-        <v>130****1267</v>
+        <v>132****7236</v>
       </c>
       <c r="E2" t="str">
-        <v>谢谢参与</v>
+        <v>二等奖</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025/10/18 17:30:55</v>
+        <v>2025/10/18 17:33:22</v>
       </c>
       <c r="B3" t="str">
-        <v>K8-6-1-3801</v>
+        <v>K10-1-1-2405</v>
       </c>
       <c r="C3" t="str">
-        <v>陈鹏宇</v>
+        <v>宁治磊</v>
       </c>
       <c r="D3" t="str">
-        <v>180****5902</v>
+        <v>130****1267</v>
       </c>
       <c r="E3" t="str">
         <v>谢谢参与</v>
@@ -461,16 +461,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025/10/18 17:29:24</v>
+        <v>2025/10/18 17:30:55</v>
       </c>
       <c r="B4" t="str">
-        <v>k8-7-1-2403</v>
+        <v>K8-6-1-3801</v>
       </c>
       <c r="C4" t="str">
-        <v>吴磊</v>
+        <v>陈鹏宇</v>
       </c>
       <c r="D4" t="str">
-        <v>134****7031</v>
+        <v>180****5902</v>
       </c>
       <c r="E4" t="str">
         <v>谢谢参与</v>
@@ -478,16 +478,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025/10/18 14:19:34</v>
+        <v>2025/10/18 17:29:24</v>
       </c>
       <c r="B5" t="str">
-        <v>k10-1-2-102</v>
+        <v>k8-7-1-2403</v>
       </c>
       <c r="C5" t="str">
-        <v>赵六</v>
+        <v>吴磊</v>
       </c>
       <c r="D5" t="str">
-        <v>138****8004</v>
+        <v>134****7031</v>
       </c>
       <c r="E5" t="str">
         <v>谢谢参与</v>
@@ -495,41 +495,58 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025/10/18 14:02:30</v>
+        <v>2025/10/18 14:19:34</v>
       </c>
       <c r="B6" t="str">
-        <v>k10-1-1-101</v>
+        <v>k10-1-2-102</v>
       </c>
       <c r="C6" t="str">
-        <v>张三</v>
+        <v>赵六</v>
       </c>
       <c r="D6" t="str">
-        <v>138****8001</v>
+        <v>138****8004</v>
       </c>
       <c r="E6" t="str">
-        <v>一等奖</v>
+        <v>谢谢参与</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
+        <v>2025/10/18 14:02:30</v>
+      </c>
+      <c r="B7" t="str">
+        <v>k10-1-1-101</v>
+      </c>
+      <c r="C7" t="str">
+        <v>张三</v>
+      </c>
+      <c r="D7" t="str">
+        <v>138****8001</v>
+      </c>
+      <c r="E7" t="str">
+        <v>一等奖</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
         <v>2025/10/18 13:41:18</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B8" t="str">
         <v>k10-1-2-101</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C8" t="str">
         <v>王五</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D8" t="str">
         <v>138****8003</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E8" t="str">
         <v>三等奖</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/lottery-records.xlsx
+++ b/data/lottery-records.xlsx
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,50 +427,50 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025/10/18 17:36:56</v>
+        <v>2025/10/18 17:40:21</v>
       </c>
       <c r="B2" t="str">
-        <v>k9-2-1-703</v>
+        <v>K12-1-1-3102</v>
       </c>
       <c r="C2" t="str">
-        <v>丁颖</v>
+        <v>朱怀安</v>
       </c>
       <c r="D2" t="str">
-        <v>132****7236</v>
+        <v>150****0180</v>
       </c>
       <c r="E2" t="str">
-        <v>二等奖</v>
+        <v>谢谢参与</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025/10/18 17:33:22</v>
+        <v>2025/10/18 17:36:56</v>
       </c>
       <c r="B3" t="str">
-        <v>K10-1-1-2405</v>
+        <v>k9-2-1-703</v>
       </c>
       <c r="C3" t="str">
-        <v>宁治磊</v>
+        <v>丁颖</v>
       </c>
       <c r="D3" t="str">
-        <v>130****1267</v>
+        <v>132****7236</v>
       </c>
       <c r="E3" t="str">
-        <v>谢谢参与</v>
+        <v>二等奖</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025/10/18 17:30:55</v>
+        <v>2025/10/18 17:33:22</v>
       </c>
       <c r="B4" t="str">
-        <v>K8-6-1-3801</v>
+        <v>K10-1-1-2405</v>
       </c>
       <c r="C4" t="str">
-        <v>陈鹏宇</v>
+        <v>宁治磊</v>
       </c>
       <c r="D4" t="str">
-        <v>180****5902</v>
+        <v>130****1267</v>
       </c>
       <c r="E4" t="str">
         <v>谢谢参与</v>
@@ -478,16 +478,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025/10/18 17:29:24</v>
+        <v>2025/10/18 17:30:55</v>
       </c>
       <c r="B5" t="str">
-        <v>k8-7-1-2403</v>
+        <v>K8-6-1-3801</v>
       </c>
       <c r="C5" t="str">
-        <v>吴磊</v>
+        <v>陈鹏宇</v>
       </c>
       <c r="D5" t="str">
-        <v>134****7031</v>
+        <v>180****5902</v>
       </c>
       <c r="E5" t="str">
         <v>谢谢参与</v>
@@ -495,16 +495,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025/10/18 14:19:34</v>
+        <v>2025/10/18 17:29:24</v>
       </c>
       <c r="B6" t="str">
-        <v>k10-1-2-102</v>
+        <v>k8-7-1-2403</v>
       </c>
       <c r="C6" t="str">
-        <v>赵六</v>
+        <v>吴磊</v>
       </c>
       <c r="D6" t="str">
-        <v>138****8004</v>
+        <v>134****7031</v>
       </c>
       <c r="E6" t="str">
         <v>谢谢参与</v>
@@ -512,41 +512,58 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025/10/18 14:02:30</v>
+        <v>2025/10/18 14:19:34</v>
       </c>
       <c r="B7" t="str">
-        <v>k10-1-1-101</v>
+        <v>k10-1-2-102</v>
       </c>
       <c r="C7" t="str">
-        <v>张三</v>
+        <v>赵六</v>
       </c>
       <c r="D7" t="str">
-        <v>138****8001</v>
+        <v>138****8004</v>
       </c>
       <c r="E7" t="str">
-        <v>一等奖</v>
+        <v>谢谢参与</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>2025/10/18 14:02:30</v>
+      </c>
+      <c r="B8" t="str">
+        <v>k10-1-1-101</v>
+      </c>
+      <c r="C8" t="str">
+        <v>张三</v>
+      </c>
+      <c r="D8" t="str">
+        <v>138****8001</v>
+      </c>
+      <c r="E8" t="str">
+        <v>一等奖</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
         <v>2025/10/18 13:41:18</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B9" t="str">
         <v>k10-1-2-101</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C9" t="str">
         <v>王五</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D9" t="str">
         <v>138****8003</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E9" t="str">
         <v>三等奖</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/lottery-records.xlsx
+++ b/data/lottery-records.xlsx
@@ -32,14 +32,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -403,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,16 +421,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025/10/18 17:40:21</v>
+        <v>2025/10/19 19:20:58</v>
       </c>
       <c r="B2" t="str">
-        <v>K12-1-1-3102</v>
+        <v>K10-2-1-903</v>
       </c>
       <c r="C2" t="str">
-        <v>朱怀安</v>
+        <v>游文海</v>
       </c>
       <c r="D2" t="str">
-        <v>150****0180</v>
+        <v>139****5231</v>
       </c>
       <c r="E2" t="str">
         <v>谢谢参与</v>
@@ -444,33 +438,33 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025/10/18 17:36:56</v>
+        <v>2025/10/18 16:04:31</v>
       </c>
       <c r="B3" t="str">
-        <v>k9-2-1-703</v>
+        <v>K8-6-1-1604</v>
       </c>
       <c r="C3" t="str">
-        <v>丁颖</v>
+        <v>赵海淇</v>
       </c>
       <c r="D3" t="str">
-        <v>132****7236</v>
+        <v>176****6062</v>
       </c>
       <c r="E3" t="str">
-        <v>二等奖</v>
+        <v>谢谢参与</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025/10/18 17:33:22</v>
+        <v>2025/10/18 15:41:35</v>
       </c>
       <c r="B4" t="str">
-        <v>K10-1-1-2405</v>
+        <v>K8-6-1-3802</v>
       </c>
       <c r="C4" t="str">
-        <v>宁治磊</v>
+        <v>蒋苗苗</v>
       </c>
       <c r="D4" t="str">
-        <v>130****1267</v>
+        <v>181****8352</v>
       </c>
       <c r="E4" t="str">
         <v>谢谢参与</v>
@@ -478,16 +472,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025/10/18 17:30:55</v>
+        <v>2025/10/18 15:41:24</v>
       </c>
       <c r="B5" t="str">
-        <v>K8-6-1-3801</v>
+        <v>k14-5-1-4504</v>
       </c>
       <c r="C5" t="str">
-        <v>陈鹏宇</v>
+        <v>邵少华</v>
       </c>
       <c r="D5" t="str">
-        <v>180****5902</v>
+        <v>136****4253</v>
       </c>
       <c r="E5" t="str">
         <v>谢谢参与</v>
@@ -495,75 +489,193 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025/10/18 17:29:24</v>
+        <v>2025/10/18 15:41:10</v>
       </c>
       <c r="B6" t="str">
-        <v>k8-7-1-2403</v>
+        <v>K10-1-1-1706</v>
       </c>
       <c r="C6" t="str">
-        <v>吴磊</v>
+        <v>姜雪莹</v>
       </c>
       <c r="D6" t="str">
-        <v>134****7031</v>
+        <v>139****9262</v>
       </c>
       <c r="E6" t="str">
-        <v>谢谢参与</v>
+        <v>2026年7月份车位</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025/10/18 14:19:34</v>
+        <v>2025/10/18 15:40:02</v>
       </c>
       <c r="B7" t="str">
-        <v>k10-1-2-102</v>
+        <v>K8-6-1-2903</v>
       </c>
       <c r="C7" t="str">
-        <v>赵六</v>
+        <v>陶小霞</v>
       </c>
       <c r="D7" t="str">
-        <v>138****8004</v>
+        <v>131****2675</v>
       </c>
       <c r="E7" t="str">
-        <v>谢谢参与</v>
+        <v>2026年5月份车位</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025/10/18 14:02:30</v>
+        <v>2025/10/18 14:57:40</v>
       </c>
       <c r="B8" t="str">
-        <v>k10-1-1-101</v>
+        <v>K12-1-1-3102</v>
       </c>
       <c r="C8" t="str">
-        <v>张三</v>
+        <v>朱怀安</v>
       </c>
       <c r="D8" t="str">
-        <v>138****8001</v>
+        <v>150****0180</v>
       </c>
       <c r="E8" t="str">
-        <v>一等奖</v>
+        <v>谢谢参与</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025/10/18 13:41:18</v>
+        <v>2025/10/18 14:17:35</v>
       </c>
       <c r="B9" t="str">
-        <v>k10-1-2-101</v>
+        <v>K12-3-2-202</v>
       </c>
       <c r="C9" t="str">
-        <v>王五</v>
+        <v>林春露</v>
       </c>
       <c r="D9" t="str">
-        <v>138****8003</v>
+        <v>153****4619</v>
       </c>
       <c r="E9" t="str">
-        <v>三等奖</v>
+        <v>谢谢参与</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2025/10/18 13:38:53</v>
+      </c>
+      <c r="B10" t="str">
+        <v>K12-2-1-101</v>
+      </c>
+      <c r="C10" t="str">
+        <v>袁龙</v>
+      </c>
+      <c r="D10" t="str">
+        <v>159****9757</v>
+      </c>
+      <c r="E10" t="str">
+        <v>2026年7月份车位</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2025/10/18 12:59:21</v>
+      </c>
+      <c r="B11" t="str">
+        <v>K8-6-1-1604</v>
+      </c>
+      <c r="C11" t="str">
+        <v>赵海淇</v>
+      </c>
+      <c r="D11" t="str">
+        <v>176****6062</v>
+      </c>
+      <c r="E11" t="str">
+        <v>谢谢参与</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2025/10/18 12:58:55</v>
+      </c>
+      <c r="B12" t="str">
+        <v>K8-6-1-1604</v>
+      </c>
+      <c r="C12" t="str">
+        <v>赵海淇</v>
+      </c>
+      <c r="D12" t="str">
+        <v>176****6062</v>
+      </c>
+      <c r="E12" t="str">
+        <v>谢谢参与</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2025/10/18 12:09:37</v>
+      </c>
+      <c r="B13" t="str">
+        <v>K12-3-2-1002</v>
+      </c>
+      <c r="C13" t="str">
+        <v>杨毅</v>
+      </c>
+      <c r="D13" t="str">
+        <v>180****4329</v>
+      </c>
+      <c r="E13" t="str">
+        <v>谢谢参与</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2025/10/18 11:55:07</v>
+      </c>
+      <c r="B14" t="str">
+        <v>k14-1-1-1103</v>
+      </c>
+      <c r="C14" t="str">
+        <v>范江兵</v>
+      </c>
+      <c r="D14" t="str">
+        <v>135****0007</v>
+      </c>
+      <c r="E14" t="str">
+        <v>谢谢参与</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2025/10/18 11:54:52</v>
+      </c>
+      <c r="B15" t="str">
+        <v>k14-6-1-802</v>
+      </c>
+      <c r="C15" t="str">
+        <v>袁登辉</v>
+      </c>
+      <c r="D15" t="str">
+        <v>177****7867</v>
+      </c>
+      <c r="E15" t="str">
+        <v>谢谢参与</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="str">
+        <v>xxxx</v>
+      </c>
+      <c r="E16" t="str">
+        <v>未中奖</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="str">
+        <v>159****1412</v>
+      </c>
+      <c r="E17" t="str">
+        <v>酱油</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/lottery-records.xlsx
+++ b/data/lottery-records.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,16 +421,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025/10/19 19:20:58</v>
+        <v>2025/10/19 19:21:28</v>
       </c>
       <c r="B2" t="str">
-        <v>K10-2-1-903</v>
+        <v>K7-3-1-502</v>
       </c>
       <c r="C2" t="str">
-        <v>游文海</v>
+        <v>范溢涛</v>
       </c>
       <c r="D2" t="str">
-        <v>139****5231</v>
+        <v>138****9310</v>
       </c>
       <c r="E2" t="str">
         <v>谢谢参与</v>
@@ -438,16 +438,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025/10/18 16:04:31</v>
+        <v>2025/10/19 19:20:58</v>
       </c>
       <c r="B3" t="str">
-        <v>K8-6-1-1604</v>
+        <v>K10-2-1-903</v>
       </c>
       <c r="C3" t="str">
-        <v>赵海淇</v>
+        <v>游文海</v>
       </c>
       <c r="D3" t="str">
-        <v>176****6062</v>
+        <v>139****5231</v>
       </c>
       <c r="E3" t="str">
         <v>谢谢参与</v>
@@ -455,16 +455,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025/10/18 15:41:35</v>
+        <v>2025/10/18 16:04:31</v>
       </c>
       <c r="B4" t="str">
-        <v>K8-6-1-3802</v>
+        <v>K8-6-1-1604</v>
       </c>
       <c r="C4" t="str">
-        <v>蒋苗苗</v>
+        <v>赵海淇</v>
       </c>
       <c r="D4" t="str">
-        <v>181****8352</v>
+        <v>176****6062</v>
       </c>
       <c r="E4" t="str">
         <v>谢谢参与</v>
@@ -472,16 +472,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025/10/18 15:41:24</v>
+        <v>2025/10/18 15:41:35</v>
       </c>
       <c r="B5" t="str">
-        <v>k14-5-1-4504</v>
+        <v>K8-6-1-3802</v>
       </c>
       <c r="C5" t="str">
-        <v>邵少华</v>
+        <v>蒋苗苗</v>
       </c>
       <c r="D5" t="str">
-        <v>136****4253</v>
+        <v>181****8352</v>
       </c>
       <c r="E5" t="str">
         <v>谢谢参与</v>
@@ -489,67 +489,67 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025/10/18 15:41:10</v>
+        <v>2025/10/18 15:41:24</v>
       </c>
       <c r="B6" t="str">
-        <v>K10-1-1-1706</v>
+        <v>k14-5-1-4504</v>
       </c>
       <c r="C6" t="str">
-        <v>姜雪莹</v>
+        <v>邵少华</v>
       </c>
       <c r="D6" t="str">
-        <v>139****9262</v>
+        <v>136****4253</v>
       </c>
       <c r="E6" t="str">
-        <v>2026年7月份车位</v>
+        <v>谢谢参与</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025/10/18 15:40:02</v>
+        <v>2025/10/18 15:41:10</v>
       </c>
       <c r="B7" t="str">
-        <v>K8-6-1-2903</v>
+        <v>K10-1-1-1706</v>
       </c>
       <c r="C7" t="str">
-        <v>陶小霞</v>
+        <v>姜雪莹</v>
       </c>
       <c r="D7" t="str">
-        <v>131****2675</v>
+        <v>139****9262</v>
       </c>
       <c r="E7" t="str">
-        <v>2026年5月份车位</v>
+        <v>2026年7月份车位</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025/10/18 14:57:40</v>
+        <v>2025/10/18 15:40:02</v>
       </c>
       <c r="B8" t="str">
-        <v>K12-1-1-3102</v>
+        <v>K8-6-1-2903</v>
       </c>
       <c r="C8" t="str">
-        <v>朱怀安</v>
+        <v>陶小霞</v>
       </c>
       <c r="D8" t="str">
-        <v>150****0180</v>
+        <v>131****2675</v>
       </c>
       <c r="E8" t="str">
-        <v>谢谢参与</v>
+        <v>2026年5月份车位</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025/10/18 14:17:35</v>
+        <v>2025/10/18 14:57:40</v>
       </c>
       <c r="B9" t="str">
-        <v>K12-3-2-202</v>
+        <v>K12-1-1-3102</v>
       </c>
       <c r="C9" t="str">
-        <v>林春露</v>
+        <v>朱怀安</v>
       </c>
       <c r="D9" t="str">
-        <v>153****4619</v>
+        <v>150****0180</v>
       </c>
       <c r="E9" t="str">
         <v>谢谢参与</v>
@@ -557,41 +557,41 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025/10/18 13:38:53</v>
+        <v>2025/10/18 14:17:35</v>
       </c>
       <c r="B10" t="str">
-        <v>K12-2-1-101</v>
+        <v>K12-3-2-202</v>
       </c>
       <c r="C10" t="str">
-        <v>袁龙</v>
+        <v>林春露</v>
       </c>
       <c r="D10" t="str">
-        <v>159****9757</v>
+        <v>153****4619</v>
       </c>
       <c r="E10" t="str">
-        <v>2026年7月份车位</v>
+        <v>谢谢参与</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025/10/18 12:59:21</v>
+        <v>2025/10/18 13:38:53</v>
       </c>
       <c r="B11" t="str">
-        <v>K8-6-1-1604</v>
+        <v>K12-2-1-101</v>
       </c>
       <c r="C11" t="str">
-        <v>赵海淇</v>
+        <v>袁龙</v>
       </c>
       <c r="D11" t="str">
-        <v>176****6062</v>
+        <v>159****9757</v>
       </c>
       <c r="E11" t="str">
-        <v>谢谢参与</v>
+        <v>2026年7月份车位</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025/10/18 12:58:55</v>
+        <v>2025/10/18 12:59:21</v>
       </c>
       <c r="B12" t="str">
         <v>K8-6-1-1604</v>
@@ -608,16 +608,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025/10/18 12:09:37</v>
+        <v>2025/10/18 12:58:55</v>
       </c>
       <c r="B13" t="str">
-        <v>K12-3-2-1002</v>
+        <v>K8-6-1-1604</v>
       </c>
       <c r="C13" t="str">
-        <v>杨毅</v>
+        <v>赵海淇</v>
       </c>
       <c r="D13" t="str">
-        <v>180****4329</v>
+        <v>176****6062</v>
       </c>
       <c r="E13" t="str">
         <v>谢谢参与</v>
@@ -625,16 +625,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025/10/18 11:55:07</v>
+        <v>2025/10/18 12:09:37</v>
       </c>
       <c r="B14" t="str">
-        <v>k14-1-1-1103</v>
+        <v>K12-3-2-1002</v>
       </c>
       <c r="C14" t="str">
-        <v>范江兵</v>
+        <v>杨毅</v>
       </c>
       <c r="D14" t="str">
-        <v>135****0007</v>
+        <v>180****4329</v>
       </c>
       <c r="E14" t="str">
         <v>谢谢参与</v>
@@ -642,40 +642,57 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
+        <v>2025/10/18 11:55:07</v>
+      </c>
+      <c r="B15" t="str">
+        <v>k14-1-1-1103</v>
+      </c>
+      <c r="C15" t="str">
+        <v>范江兵</v>
+      </c>
+      <c r="D15" t="str">
+        <v>135****0007</v>
+      </c>
+      <c r="E15" t="str">
+        <v>谢谢参与</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
         <v>2025/10/18 11:54:52</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B16" t="str">
         <v>k14-6-1-802</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C16" t="str">
         <v>袁登辉</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D16" t="str">
         <v>177****7867</v>
       </c>
-      <c r="E15" t="str">
-        <v>谢谢参与</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" t="str">
-        <v>xxxx</v>
-      </c>
       <c r="E16" t="str">
-        <v>未中奖</v>
+        <v>谢谢参与</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" t="str">
+        <v>xxxx</v>
+      </c>
+      <c r="E17" t="str">
+        <v>未中奖</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="str">
         <v>159****1412</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E18" t="str">
         <v>酱油</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/lottery-records.xlsx
+++ b/data/lottery-records.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,16 +421,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025/10/19 19:21:28</v>
+        <v>2025/10/19 19:21:41</v>
       </c>
       <c r="B2" t="str">
-        <v>K7-3-1-502</v>
+        <v>k8-5-1-2403</v>
       </c>
       <c r="C2" t="str">
-        <v>范溢涛</v>
+        <v>张丝</v>
       </c>
       <c r="D2" t="str">
-        <v>138****9310</v>
+        <v>153****4592</v>
       </c>
       <c r="E2" t="str">
         <v>谢谢参与</v>
@@ -438,16 +438,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025/10/19 19:20:58</v>
+        <v>2025/10/19 19:21:28</v>
       </c>
       <c r="B3" t="str">
-        <v>K10-2-1-903</v>
+        <v>K7-3-1-502</v>
       </c>
       <c r="C3" t="str">
-        <v>游文海</v>
+        <v>范溢涛</v>
       </c>
       <c r="D3" t="str">
-        <v>139****5231</v>
+        <v>138****9310</v>
       </c>
       <c r="E3" t="str">
         <v>谢谢参与</v>
@@ -455,16 +455,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025/10/18 16:04:31</v>
+        <v>2025/10/19 19:20:58</v>
       </c>
       <c r="B4" t="str">
-        <v>K8-6-1-1604</v>
+        <v>K10-2-1-903</v>
       </c>
       <c r="C4" t="str">
-        <v>赵海淇</v>
+        <v>游文海</v>
       </c>
       <c r="D4" t="str">
-        <v>176****6062</v>
+        <v>139****5231</v>
       </c>
       <c r="E4" t="str">
         <v>谢谢参与</v>
@@ -472,16 +472,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025/10/18 15:41:35</v>
+        <v>2025/10/18 16:04:31</v>
       </c>
       <c r="B5" t="str">
-        <v>K8-6-1-3802</v>
+        <v>K8-6-1-1604</v>
       </c>
       <c r="C5" t="str">
-        <v>蒋苗苗</v>
+        <v>赵海淇</v>
       </c>
       <c r="D5" t="str">
-        <v>181****8352</v>
+        <v>176****6062</v>
       </c>
       <c r="E5" t="str">
         <v>谢谢参与</v>
@@ -489,16 +489,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025/10/18 15:41:24</v>
+        <v>2025/10/18 15:41:35</v>
       </c>
       <c r="B6" t="str">
-        <v>k14-5-1-4504</v>
+        <v>K8-6-1-3802</v>
       </c>
       <c r="C6" t="str">
-        <v>邵少华</v>
+        <v>蒋苗苗</v>
       </c>
       <c r="D6" t="str">
-        <v>136****4253</v>
+        <v>181****8352</v>
       </c>
       <c r="E6" t="str">
         <v>谢谢参与</v>
@@ -506,67 +506,67 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025/10/18 15:41:10</v>
+        <v>2025/10/18 15:41:24</v>
       </c>
       <c r="B7" t="str">
-        <v>K10-1-1-1706</v>
+        <v>k14-5-1-4504</v>
       </c>
       <c r="C7" t="str">
-        <v>姜雪莹</v>
+        <v>邵少华</v>
       </c>
       <c r="D7" t="str">
-        <v>139****9262</v>
+        <v>136****4253</v>
       </c>
       <c r="E7" t="str">
-        <v>2026年7月份车位</v>
+        <v>谢谢参与</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025/10/18 15:40:02</v>
+        <v>2025/10/18 15:41:10</v>
       </c>
       <c r="B8" t="str">
-        <v>K8-6-1-2903</v>
+        <v>K10-1-1-1706</v>
       </c>
       <c r="C8" t="str">
-        <v>陶小霞</v>
+        <v>姜雪莹</v>
       </c>
       <c r="D8" t="str">
-        <v>131****2675</v>
+        <v>139****9262</v>
       </c>
       <c r="E8" t="str">
-        <v>2026年5月份车位</v>
+        <v>2026年7月份车位</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025/10/18 14:57:40</v>
+        <v>2025/10/18 15:40:02</v>
       </c>
       <c r="B9" t="str">
-        <v>K12-1-1-3102</v>
+        <v>K8-6-1-2903</v>
       </c>
       <c r="C9" t="str">
-        <v>朱怀安</v>
+        <v>陶小霞</v>
       </c>
       <c r="D9" t="str">
-        <v>150****0180</v>
+        <v>131****2675</v>
       </c>
       <c r="E9" t="str">
-        <v>谢谢参与</v>
+        <v>2026年5月份车位</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025/10/18 14:17:35</v>
+        <v>2025/10/18 14:57:40</v>
       </c>
       <c r="B10" t="str">
-        <v>K12-3-2-202</v>
+        <v>K12-1-1-3102</v>
       </c>
       <c r="C10" t="str">
-        <v>林春露</v>
+        <v>朱怀安</v>
       </c>
       <c r="D10" t="str">
-        <v>153****4619</v>
+        <v>150****0180</v>
       </c>
       <c r="E10" t="str">
         <v>谢谢参与</v>
@@ -574,41 +574,41 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025/10/18 13:38:53</v>
+        <v>2025/10/18 14:17:35</v>
       </c>
       <c r="B11" t="str">
-        <v>K12-2-1-101</v>
+        <v>K12-3-2-202</v>
       </c>
       <c r="C11" t="str">
-        <v>袁龙</v>
+        <v>林春露</v>
       </c>
       <c r="D11" t="str">
-        <v>159****9757</v>
+        <v>153****4619</v>
       </c>
       <c r="E11" t="str">
-        <v>2026年7月份车位</v>
+        <v>谢谢参与</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025/10/18 12:59:21</v>
+        <v>2025/10/18 13:38:53</v>
       </c>
       <c r="B12" t="str">
-        <v>K8-6-1-1604</v>
+        <v>K12-2-1-101</v>
       </c>
       <c r="C12" t="str">
-        <v>赵海淇</v>
+        <v>袁龙</v>
       </c>
       <c r="D12" t="str">
-        <v>176****6062</v>
+        <v>159****9757</v>
       </c>
       <c r="E12" t="str">
-        <v>谢谢参与</v>
+        <v>2026年7月份车位</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025/10/18 12:58:55</v>
+        <v>2025/10/18 12:59:21</v>
       </c>
       <c r="B13" t="str">
         <v>K8-6-1-1604</v>
@@ -625,16 +625,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025/10/18 12:09:37</v>
+        <v>2025/10/18 12:58:55</v>
       </c>
       <c r="B14" t="str">
-        <v>K12-3-2-1002</v>
+        <v>K8-6-1-1604</v>
       </c>
       <c r="C14" t="str">
-        <v>杨毅</v>
+        <v>赵海淇</v>
       </c>
       <c r="D14" t="str">
-        <v>180****4329</v>
+        <v>176****6062</v>
       </c>
       <c r="E14" t="str">
         <v>谢谢参与</v>
@@ -642,16 +642,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2025/10/18 11:55:07</v>
+        <v>2025/10/18 12:09:37</v>
       </c>
       <c r="B15" t="str">
-        <v>k14-1-1-1103</v>
+        <v>K12-3-2-1002</v>
       </c>
       <c r="C15" t="str">
-        <v>范江兵</v>
+        <v>杨毅</v>
       </c>
       <c r="D15" t="str">
-        <v>135****0007</v>
+        <v>180****4329</v>
       </c>
       <c r="E15" t="str">
         <v>谢谢参与</v>
@@ -659,40 +659,57 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
+        <v>2025/10/18 11:55:07</v>
+      </c>
+      <c r="B16" t="str">
+        <v>k14-1-1-1103</v>
+      </c>
+      <c r="C16" t="str">
+        <v>范江兵</v>
+      </c>
+      <c r="D16" t="str">
+        <v>135****0007</v>
+      </c>
+      <c r="E16" t="str">
+        <v>谢谢参与</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
         <v>2025/10/18 11:54:52</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B17" t="str">
         <v>k14-6-1-802</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C17" t="str">
         <v>袁登辉</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D17" t="str">
         <v>177****7867</v>
       </c>
-      <c r="E16" t="str">
-        <v>谢谢参与</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" t="str">
-        <v>xxxx</v>
-      </c>
       <c r="E17" t="str">
-        <v>未中奖</v>
+        <v>谢谢参与</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" t="str">
+        <v>xxxx</v>
+      </c>
+      <c r="E18" t="str">
+        <v>未中奖</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="str">
         <v>159****1412</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E19" t="str">
         <v>酱油</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/lottery-records.xlsx
+++ b/data/lottery-records.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,16 +421,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025/10/19 19:21:41</v>
+        <v>2025/10/19 19:21:59</v>
       </c>
       <c r="B2" t="str">
-        <v>k8-5-1-2403</v>
+        <v>k13-2-2-704</v>
       </c>
       <c r="C2" t="str">
-        <v>张丝</v>
+        <v>陶敏</v>
       </c>
       <c r="D2" t="str">
-        <v>153****4592</v>
+        <v>130****8633</v>
       </c>
       <c r="E2" t="str">
         <v>谢谢参与</v>
@@ -438,16 +438,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025/10/19 19:21:28</v>
+        <v>2025/10/19 19:21:41</v>
       </c>
       <c r="B3" t="str">
-        <v>K7-3-1-502</v>
+        <v>k8-5-1-2403</v>
       </c>
       <c r="C3" t="str">
-        <v>范溢涛</v>
+        <v>张丝</v>
       </c>
       <c r="D3" t="str">
-        <v>138****9310</v>
+        <v>153****4592</v>
       </c>
       <c r="E3" t="str">
         <v>谢谢参与</v>
@@ -455,16 +455,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025/10/19 19:20:58</v>
+        <v>2025/10/19 19:21:28</v>
       </c>
       <c r="B4" t="str">
-        <v>K10-2-1-903</v>
+        <v>K7-3-1-502</v>
       </c>
       <c r="C4" t="str">
-        <v>游文海</v>
+        <v>范溢涛</v>
       </c>
       <c r="D4" t="str">
-        <v>139****5231</v>
+        <v>138****9310</v>
       </c>
       <c r="E4" t="str">
         <v>谢谢参与</v>
@@ -472,16 +472,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025/10/18 16:04:31</v>
+        <v>2025/10/19 19:20:58</v>
       </c>
       <c r="B5" t="str">
-        <v>K8-6-1-1604</v>
+        <v>K10-2-1-903</v>
       </c>
       <c r="C5" t="str">
-        <v>赵海淇</v>
+        <v>游文海</v>
       </c>
       <c r="D5" t="str">
-        <v>176****6062</v>
+        <v>139****5231</v>
       </c>
       <c r="E5" t="str">
         <v>谢谢参与</v>
@@ -489,16 +489,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025/10/18 15:41:35</v>
+        <v>2025/10/18 16:04:31</v>
       </c>
       <c r="B6" t="str">
-        <v>K8-6-1-3802</v>
+        <v>K8-6-1-1604</v>
       </c>
       <c r="C6" t="str">
-        <v>蒋苗苗</v>
+        <v>赵海淇</v>
       </c>
       <c r="D6" t="str">
-        <v>181****8352</v>
+        <v>176****6062</v>
       </c>
       <c r="E6" t="str">
         <v>谢谢参与</v>
@@ -506,16 +506,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025/10/18 15:41:24</v>
+        <v>2025/10/18 15:41:35</v>
       </c>
       <c r="B7" t="str">
-        <v>k14-5-1-4504</v>
+        <v>K8-6-1-3802</v>
       </c>
       <c r="C7" t="str">
-        <v>邵少华</v>
+        <v>蒋苗苗</v>
       </c>
       <c r="D7" t="str">
-        <v>136****4253</v>
+        <v>181****8352</v>
       </c>
       <c r="E7" t="str">
         <v>谢谢参与</v>
@@ -523,67 +523,67 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025/10/18 15:41:10</v>
+        <v>2025/10/18 15:41:24</v>
       </c>
       <c r="B8" t="str">
-        <v>K10-1-1-1706</v>
+        <v>k14-5-1-4504</v>
       </c>
       <c r="C8" t="str">
-        <v>姜雪莹</v>
+        <v>邵少华</v>
       </c>
       <c r="D8" t="str">
-        <v>139****9262</v>
+        <v>136****4253</v>
       </c>
       <c r="E8" t="str">
-        <v>2026年7月份车位</v>
+        <v>谢谢参与</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025/10/18 15:40:02</v>
+        <v>2025/10/18 15:41:10</v>
       </c>
       <c r="B9" t="str">
-        <v>K8-6-1-2903</v>
+        <v>K10-1-1-1706</v>
       </c>
       <c r="C9" t="str">
-        <v>陶小霞</v>
+        <v>姜雪莹</v>
       </c>
       <c r="D9" t="str">
-        <v>131****2675</v>
+        <v>139****9262</v>
       </c>
       <c r="E9" t="str">
-        <v>2026年5月份车位</v>
+        <v>2026年7月份车位</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025/10/18 14:57:40</v>
+        <v>2025/10/18 15:40:02</v>
       </c>
       <c r="B10" t="str">
-        <v>K12-1-1-3102</v>
+        <v>K8-6-1-2903</v>
       </c>
       <c r="C10" t="str">
-        <v>朱怀安</v>
+        <v>陶小霞</v>
       </c>
       <c r="D10" t="str">
-        <v>150****0180</v>
+        <v>131****2675</v>
       </c>
       <c r="E10" t="str">
-        <v>谢谢参与</v>
+        <v>2026年5月份车位</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025/10/18 14:17:35</v>
+        <v>2025/10/18 14:57:40</v>
       </c>
       <c r="B11" t="str">
-        <v>K12-3-2-202</v>
+        <v>K12-1-1-3102</v>
       </c>
       <c r="C11" t="str">
-        <v>林春露</v>
+        <v>朱怀安</v>
       </c>
       <c r="D11" t="str">
-        <v>153****4619</v>
+        <v>150****0180</v>
       </c>
       <c r="E11" t="str">
         <v>谢谢参与</v>
@@ -591,41 +591,41 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025/10/18 13:38:53</v>
+        <v>2025/10/18 14:17:35</v>
       </c>
       <c r="B12" t="str">
-        <v>K12-2-1-101</v>
+        <v>K12-3-2-202</v>
       </c>
       <c r="C12" t="str">
-        <v>袁龙</v>
+        <v>林春露</v>
       </c>
       <c r="D12" t="str">
-        <v>159****9757</v>
+        <v>153****4619</v>
       </c>
       <c r="E12" t="str">
-        <v>2026年7月份车位</v>
+        <v>谢谢参与</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025/10/18 12:59:21</v>
+        <v>2025/10/18 13:38:53</v>
       </c>
       <c r="B13" t="str">
-        <v>K8-6-1-1604</v>
+        <v>K12-2-1-101</v>
       </c>
       <c r="C13" t="str">
-        <v>赵海淇</v>
+        <v>袁龙</v>
       </c>
       <c r="D13" t="str">
-        <v>176****6062</v>
+        <v>159****9757</v>
       </c>
       <c r="E13" t="str">
-        <v>谢谢参与</v>
+        <v>2026年7月份车位</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025/10/18 12:58:55</v>
+        <v>2025/10/18 12:59:21</v>
       </c>
       <c r="B14" t="str">
         <v>K8-6-1-1604</v>
@@ -642,16 +642,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2025/10/18 12:09:37</v>
+        <v>2025/10/18 12:58:55</v>
       </c>
       <c r="B15" t="str">
-        <v>K12-3-2-1002</v>
+        <v>K8-6-1-1604</v>
       </c>
       <c r="C15" t="str">
-        <v>杨毅</v>
+        <v>赵海淇</v>
       </c>
       <c r="D15" t="str">
-        <v>180****4329</v>
+        <v>176****6062</v>
       </c>
       <c r="E15" t="str">
         <v>谢谢参与</v>
@@ -659,16 +659,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2025/10/18 11:55:07</v>
+        <v>2025/10/18 12:09:37</v>
       </c>
       <c r="B16" t="str">
-        <v>k14-1-1-1103</v>
+        <v>K12-3-2-1002</v>
       </c>
       <c r="C16" t="str">
-        <v>范江兵</v>
+        <v>杨毅</v>
       </c>
       <c r="D16" t="str">
-        <v>135****0007</v>
+        <v>180****4329</v>
       </c>
       <c r="E16" t="str">
         <v>谢谢参与</v>
@@ -676,40 +676,57 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
+        <v>2025/10/18 11:55:07</v>
+      </c>
+      <c r="B17" t="str">
+        <v>k14-1-1-1103</v>
+      </c>
+      <c r="C17" t="str">
+        <v>范江兵</v>
+      </c>
+      <c r="D17" t="str">
+        <v>135****0007</v>
+      </c>
+      <c r="E17" t="str">
+        <v>谢谢参与</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
         <v>2025/10/18 11:54:52</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B18" t="str">
         <v>k14-6-1-802</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C18" t="str">
         <v>袁登辉</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D18" t="str">
         <v>177****7867</v>
       </c>
-      <c r="E17" t="str">
-        <v>谢谢参与</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" t="str">
-        <v>xxxx</v>
-      </c>
       <c r="E18" t="str">
-        <v>未中奖</v>
+        <v>谢谢参与</v>
       </c>
     </row>
     <row r="19">
       <c r="D19" t="str">
+        <v>xxxx</v>
+      </c>
+      <c r="E19" t="str">
+        <v>未中奖</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="str">
         <v>159****1412</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E20" t="str">
         <v>酱油</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E20"/>
   </ignoredErrors>
 </worksheet>
 </file>